--- a/v5-Sugungum/Params.xlsx
+++ b/v5-Sugungum/Params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Malaria-Uganda-PRISM\v0-challengeTrial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Malaria-Uganda-PRISM\v5-Sugungum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385DBE6B-04AF-48A8-ACA0-E680E4FEF400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D512844-59EA-496C-822E-CE9B7450B4F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="102480" yWindow="-120" windowWidth="16440" windowHeight="28440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Gametocyte_Conversion_Draw_Mean</t>
-  </si>
-  <si>
-    <t>Gametocyte_Conversion_Draw_Std_Dev</t>
-  </si>
-  <si>
     <t>Biological_Age_Immune_Coefficient_PPP</t>
   </si>
   <si>
@@ -59,24 +53,6 @@
     <t>Cumulative_Exposure_Immune_Coefficient_TM</t>
   </si>
   <si>
-    <t>Malaria_Free_Interval_Immune_Coefficient_PPP</t>
-  </si>
-  <si>
-    <t>Malaria_Free_Interval_Immune_Coefficient_TM</t>
-  </si>
-  <si>
-    <t>Recent_Exposure_Immune_Coefficient_PPP</t>
-  </si>
-  <si>
-    <t>Recent_Exposure_Immune_Coefficient_TM</t>
-  </si>
-  <si>
-    <t>Strain_Diversity_Immune_Coefficient_PPP</t>
-  </si>
-  <si>
-    <t>Strain_Diversity_Immune_Coefficient_TM</t>
-  </si>
-  <si>
     <t>Scale_Factor_Age_a</t>
   </si>
   <si>
@@ -86,24 +62,6 @@
     <t>Scale_Factor_Cum_Exp_shape</t>
   </si>
   <si>
-    <t>Scale_Factor_Rec_Exp_steepness</t>
-  </si>
-  <si>
-    <t>Scale_Factor_Rec_Exp_midpoint</t>
-  </si>
-  <si>
-    <t>Scale_Factor_Free_Interval_a</t>
-  </si>
-  <si>
-    <t>Scale_Factor_Strain_Diversity_n</t>
-  </si>
-  <si>
-    <t>Diversity_From_Marginal_Prevalence</t>
-  </si>
-  <si>
-    <t>Prevalence_Threshold_For_Diversity</t>
-  </si>
-  <si>
     <t>Concurrent_Infections_a</t>
   </si>
   <si>
@@ -111,30 +69,6 @@
   </si>
   <si>
     <t>Concurrent_Infections_c</t>
-  </si>
-  <si>
-    <t>ActiveInfectionsScaleFactorPT</t>
-  </si>
-  <si>
-    <t>AgeScaleFactorPT</t>
-  </si>
-  <si>
-    <t>Age_PT_Increment</t>
-  </si>
-  <si>
-    <t>Base_PT</t>
-  </si>
-  <si>
-    <t>ClearedInfectionsScaleFactorPT</t>
-  </si>
-  <si>
-    <t>FreeIntervalScaleFactorPT</t>
-  </si>
-  <si>
-    <t>Individual_Variation_Magnitude_PT</t>
-  </si>
-  <si>
-    <t>NumWavesScaleFactorPT</t>
   </si>
   <si>
     <t>Wave_Vs_Infection_Relative_Weight</t>
@@ -537,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -573,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -587,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -604,37 +538,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -643,40 +577,40 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -688,386 +622,78 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>200</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="C29">
-        <v>100000</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/v5-Sugungum/Params.xlsx
+++ b/v5-Sugungum/Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Malaria-Uganda-PRISM\v5-Sugungum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D512844-59EA-496C-822E-CE9B7450B4F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBC88D-75D6-4951-8861-800823B7E03D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -549,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
@@ -647,10 +647,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
